--- a/NoiseOccupancy hits.xlsx
+++ b/NoiseOccupancy hits.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\CMSAFE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C5F299-6D22-4BE8-9795-245EB9AD55CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4E2B3F-3707-411E-B3A6-CE1FF831E600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="CD=100fF I_PRE=70uA " sheetId="4" r:id="rId1"/>
+    <sheet name="CD=100fF I_PRE=50uA " sheetId="3" r:id="rId2"/>
+    <sheet name="CD=100fF I_PRE=30uA " sheetId="2" r:id="rId3"/>
+    <sheet name="CD=50fF I_PRE=30uA" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="15">
   <si>
     <t>Soglia</t>
   </si>
@@ -56,12 +59,27 @@
   <si>
     <t>128 - 239</t>
   </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>100fF 70uA</t>
+  </si>
+  <si>
+    <t>100fF 50uA</t>
+  </si>
+  <si>
+    <t>100fF 30uA</t>
+  </si>
+  <si>
+    <t>50fF 30uA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +89,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -243,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -354,6 +380,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -640,11 +672,1308 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:AF18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88455587-8B98-4DF8-9207-741A2F92A5AA}">
+  <dimension ref="C3:S11"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:S11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="5.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="13.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="14.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="1"/>
+    <col min="16" max="16" width="14" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.88671875" style="1"/>
+    <col min="19" max="19" width="13.44140625" style="1" customWidth="1"/>
+    <col min="20" max="24" width="8.88671875" style="1"/>
+    <col min="25" max="25" width="11.77734375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="8.88671875" style="1"/>
+    <col min="27" max="27" width="13.21875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="8.88671875" style="1"/>
+    <col min="29" max="29" width="13.33203125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="13.6640625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="8.88671875" style="1"/>
+    <col min="32" max="32" width="11.6640625" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="34"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="25"/>
+    </row>
+    <row r="5" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C6" s="5">
+        <v>590</v>
+      </c>
+      <c r="D6" s="31">
+        <v>80077</v>
+      </c>
+      <c r="E6" s="31">
+        <v>714.97</v>
+      </c>
+      <c r="F6" s="27">
+        <v>150</v>
+      </c>
+      <c r="G6" s="27">
+        <v>15</v>
+      </c>
+      <c r="H6" s="27">
+        <v>102</v>
+      </c>
+      <c r="I6" s="6">
+        <v>3212</v>
+      </c>
+      <c r="J6" s="6">
+        <v>100.38</v>
+      </c>
+      <c r="K6" s="6">
+        <v>80</v>
+      </c>
+      <c r="L6" s="15">
+        <v>97583</v>
+      </c>
+      <c r="M6" s="15">
+        <v>871.28</v>
+      </c>
+      <c r="N6" s="19">
+        <v>33</v>
+      </c>
+      <c r="O6" s="19">
+        <v>33</v>
+      </c>
+      <c r="P6" s="19">
+        <v>111</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>2228</v>
+      </c>
+      <c r="R6" s="7">
+        <v>202.55</v>
+      </c>
+      <c r="S6" s="7">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C7" s="8">
+        <v>680</v>
+      </c>
+      <c r="D7" s="32">
+        <v>42466</v>
+      </c>
+      <c r="E7" s="32">
+        <v>379.16</v>
+      </c>
+      <c r="F7" s="28">
+        <v>449</v>
+      </c>
+      <c r="G7" s="28">
+        <v>12.47</v>
+      </c>
+      <c r="H7" s="28">
+        <v>76</v>
+      </c>
+      <c r="I7" s="9">
+        <v>4606</v>
+      </c>
+      <c r="J7" s="9">
+        <v>68.75</v>
+      </c>
+      <c r="K7" s="9">
+        <v>45</v>
+      </c>
+      <c r="L7" s="16">
+        <v>91573</v>
+      </c>
+      <c r="M7" s="16">
+        <v>817.62</v>
+      </c>
+      <c r="N7" s="20">
+        <v>4</v>
+      </c>
+      <c r="O7" s="20">
+        <v>4</v>
+      </c>
+      <c r="P7" s="20">
+        <v>111</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>3343</v>
+      </c>
+      <c r="R7" s="10">
+        <v>208.94</v>
+      </c>
+      <c r="S7" s="10">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C8" s="8">
+        <v>950</v>
+      </c>
+      <c r="D8" s="32">
+        <v>577</v>
+      </c>
+      <c r="E8" s="32">
+        <v>5.15</v>
+      </c>
+      <c r="F8" s="28">
+        <v>20</v>
+      </c>
+      <c r="G8" s="28">
+        <v>0.18</v>
+      </c>
+      <c r="H8" s="28">
+        <v>2</v>
+      </c>
+      <c r="I8" s="9">
+        <v>577</v>
+      </c>
+      <c r="J8" s="9">
+        <v>5.15</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0</v>
+      </c>
+      <c r="L8" s="16">
+        <v>18116</v>
+      </c>
+      <c r="M8" s="16">
+        <v>161.75</v>
+      </c>
+      <c r="N8" s="20">
+        <v>634</v>
+      </c>
+      <c r="O8" s="20">
+        <v>14.74</v>
+      </c>
+      <c r="P8" s="20">
+        <v>69</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>8191</v>
+      </c>
+      <c r="R8" s="10">
+        <v>82.74</v>
+      </c>
+      <c r="S8" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C9" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="32">
+        <v>79</v>
+      </c>
+      <c r="E9" s="32">
+        <v>0.71</v>
+      </c>
+      <c r="F9" s="28">
+        <v>14</v>
+      </c>
+      <c r="G9" s="28">
+        <v>0.13</v>
+      </c>
+      <c r="H9" s="28">
+        <v>1</v>
+      </c>
+      <c r="I9" s="9">
+        <v>79</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0.71</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="16">
+        <v>4772</v>
+      </c>
+      <c r="M9" s="16">
+        <v>42.61</v>
+      </c>
+      <c r="N9" s="20">
+        <v>498</v>
+      </c>
+      <c r="O9" s="20">
+        <v>5.08</v>
+      </c>
+      <c r="P9" s="20">
+        <v>14</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>1513</v>
+      </c>
+      <c r="R9" s="10">
+        <v>14.14</v>
+      </c>
+      <c r="S9" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C10" s="8">
+        <v>1200</v>
+      </c>
+      <c r="D10" s="32">
+        <v>0</v>
+      </c>
+      <c r="E10" s="32">
+        <v>0</v>
+      </c>
+      <c r="F10" s="28">
+        <v>0</v>
+      </c>
+      <c r="G10" s="28">
+        <v>0</v>
+      </c>
+      <c r="H10" s="28">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
+      <c r="L10" s="16">
+        <v>1064</v>
+      </c>
+      <c r="M10" s="16">
+        <v>9.5</v>
+      </c>
+      <c r="N10" s="20">
+        <v>41</v>
+      </c>
+      <c r="O10" s="20">
+        <v>0.37</v>
+      </c>
+      <c r="P10" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>41</v>
+      </c>
+      <c r="R10" s="10">
+        <v>0.37</v>
+      </c>
+      <c r="S10" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="11">
+        <v>1500</v>
+      </c>
+      <c r="D11" s="33">
+        <v>0</v>
+      </c>
+      <c r="E11" s="33">
+        <v>0</v>
+      </c>
+      <c r="F11" s="29">
+        <v>0</v>
+      </c>
+      <c r="G11" s="29">
+        <v>0</v>
+      </c>
+      <c r="H11" s="29">
+        <v>0</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0</v>
+      </c>
+      <c r="K11" s="12">
+        <v>0</v>
+      </c>
+      <c r="L11" s="17">
+        <v>17</v>
+      </c>
+      <c r="M11" s="17">
+        <v>0.15</v>
+      </c>
+      <c r="N11" s="21">
+        <v>17</v>
+      </c>
+      <c r="O11" s="21">
+        <v>0.15</v>
+      </c>
+      <c r="P11" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>17</v>
+      </c>
+      <c r="R11" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="S11" s="38">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F8EDB9-1E74-4E2B-97F0-DFF5A3C6849B}">
+  <dimension ref="C3:S14"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="5.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="13.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="14.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="1"/>
+    <col min="16" max="16" width="14" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.88671875" style="1"/>
+    <col min="19" max="19" width="13.44140625" style="1" customWidth="1"/>
+    <col min="20" max="24" width="8.88671875" style="1"/>
+    <col min="25" max="25" width="11.77734375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="8.88671875" style="1"/>
+    <col min="27" max="27" width="13.21875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="8.88671875" style="1"/>
+    <col min="29" max="29" width="13.33203125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="13.6640625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="8.88671875" style="1"/>
+    <col min="32" max="32" width="11.6640625" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="34"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="25"/>
+    </row>
+    <row r="5" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C6" s="5">
+        <v>590</v>
+      </c>
+      <c r="D6" s="31">
+        <v>66171</v>
+      </c>
+      <c r="E6" s="31">
+        <v>590.80999999999995</v>
+      </c>
+      <c r="F6" s="27">
+        <v>235</v>
+      </c>
+      <c r="G6" s="27">
+        <v>13.06</v>
+      </c>
+      <c r="H6" s="27">
+        <v>94</v>
+      </c>
+      <c r="I6" s="6">
+        <v>4046</v>
+      </c>
+      <c r="J6" s="6">
+        <v>91.95</v>
+      </c>
+      <c r="K6" s="6">
+        <v>68</v>
+      </c>
+      <c r="L6" s="15">
+        <v>97630</v>
+      </c>
+      <c r="M6" s="15">
+        <v>871.7</v>
+      </c>
+      <c r="N6" s="19">
+        <v>28</v>
+      </c>
+      <c r="O6" s="19">
+        <v>28</v>
+      </c>
+      <c r="P6" s="19">
+        <v>111</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>1210</v>
+      </c>
+      <c r="R6" s="7">
+        <v>151.25</v>
+      </c>
+      <c r="S6" s="7">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C7" s="8">
+        <v>950</v>
+      </c>
+      <c r="D7" s="32">
+        <v>1449</v>
+      </c>
+      <c r="E7" s="32">
+        <v>12.94</v>
+      </c>
+      <c r="F7" s="28">
+        <v>41</v>
+      </c>
+      <c r="G7" s="28">
+        <v>0.38</v>
+      </c>
+      <c r="H7" s="28">
+        <v>4</v>
+      </c>
+      <c r="I7" s="9">
+        <v>652</v>
+      </c>
+      <c r="J7" s="9">
+        <v>5.87</v>
+      </c>
+      <c r="K7" s="9">
+        <v>1</v>
+      </c>
+      <c r="L7" s="16">
+        <v>9747</v>
+      </c>
+      <c r="M7" s="16">
+        <v>87.03</v>
+      </c>
+      <c r="N7" s="20">
+        <v>718</v>
+      </c>
+      <c r="O7" s="20">
+        <v>10.88</v>
+      </c>
+      <c r="P7" s="20">
+        <v>46</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>4296</v>
+      </c>
+      <c r="R7" s="10">
+        <v>40.909999999999997</v>
+      </c>
+      <c r="S7" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C8" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="32">
+        <v>583</v>
+      </c>
+      <c r="E8" s="32">
+        <v>5.21</v>
+      </c>
+      <c r="F8" s="28">
+        <v>18</v>
+      </c>
+      <c r="G8" s="28">
+        <v>0.17</v>
+      </c>
+      <c r="H8" s="28">
+        <v>3</v>
+      </c>
+      <c r="I8" s="9">
+        <v>583</v>
+      </c>
+      <c r="J8" s="9">
+        <v>5.21</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0</v>
+      </c>
+      <c r="L8" s="16">
+        <v>3529</v>
+      </c>
+      <c r="M8" s="16">
+        <v>31.51</v>
+      </c>
+      <c r="N8" s="20">
+        <v>467</v>
+      </c>
+      <c r="O8" s="20">
+        <v>4.67</v>
+      </c>
+      <c r="P8" s="20">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>1317</v>
+      </c>
+      <c r="R8" s="10">
+        <v>12.19</v>
+      </c>
+      <c r="S8" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C9" s="8">
+        <v>1200</v>
+      </c>
+      <c r="D9" s="32">
+        <v>25</v>
+      </c>
+      <c r="E9" s="32">
+        <v>0.22</v>
+      </c>
+      <c r="F9" s="28">
+        <v>25</v>
+      </c>
+      <c r="G9" s="28">
+        <v>0.22</v>
+      </c>
+      <c r="H9" s="28">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
+        <v>25</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0.22</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="16">
+        <v>1036</v>
+      </c>
+      <c r="M9" s="16">
+        <v>9.25</v>
+      </c>
+      <c r="N9" s="20">
+        <v>37</v>
+      </c>
+      <c r="O9" s="20">
+        <v>0.34</v>
+      </c>
+      <c r="P9" s="20">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>145</v>
+      </c>
+      <c r="R9" s="10">
+        <v>1.31</v>
+      </c>
+      <c r="S9" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="11">
+        <v>1500</v>
+      </c>
+      <c r="D10" s="33">
+        <v>0</v>
+      </c>
+      <c r="E10" s="33">
+        <v>0</v>
+      </c>
+      <c r="F10" s="29">
+        <v>0</v>
+      </c>
+      <c r="G10" s="29">
+        <v>0</v>
+      </c>
+      <c r="H10" s="29">
+        <v>0</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0</v>
+      </c>
+      <c r="K10" s="12">
+        <v>0</v>
+      </c>
+      <c r="L10" s="17">
+        <v>351</v>
+      </c>
+      <c r="M10" s="17">
+        <v>3.31</v>
+      </c>
+      <c r="N10" s="21">
+        <v>0</v>
+      </c>
+      <c r="O10" s="21">
+        <v>0</v>
+      </c>
+      <c r="P10" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>351</v>
+      </c>
+      <c r="R10" s="13">
+        <v>3.31</v>
+      </c>
+      <c r="S10" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="H14" s="39"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52284589-AF77-46EB-8B02-F57EA23A0B52}">
+  <dimension ref="C3:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K18" sqref="C4:K18"/>
+      <selection activeCell="L4" sqref="L4:S11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="5.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="13.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="14.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="1"/>
+    <col min="16" max="16" width="14" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.88671875" style="1"/>
+    <col min="19" max="19" width="13.44140625" style="1" customWidth="1"/>
+    <col min="20" max="24" width="8.88671875" style="1"/>
+    <col min="25" max="25" width="11.77734375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="8.88671875" style="1"/>
+    <col min="27" max="27" width="13.21875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="8.88671875" style="1"/>
+    <col min="29" max="29" width="13.33203125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="13.6640625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="8.88671875" style="1"/>
+    <col min="32" max="32" width="11.6640625" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="34"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="25"/>
+    </row>
+    <row r="5" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C6" s="5">
+        <v>590</v>
+      </c>
+      <c r="D6" s="31">
+        <v>69715</v>
+      </c>
+      <c r="E6" s="31">
+        <v>622.46</v>
+      </c>
+      <c r="F6" s="27">
+        <v>180</v>
+      </c>
+      <c r="G6" s="27">
+        <v>11.25</v>
+      </c>
+      <c r="H6" s="27">
+        <v>96</v>
+      </c>
+      <c r="I6" s="6">
+        <v>5766</v>
+      </c>
+      <c r="J6" s="6">
+        <v>131.05000000000001</v>
+      </c>
+      <c r="K6" s="6">
+        <v>68</v>
+      </c>
+      <c r="L6" s="15">
+        <v>103949</v>
+      </c>
+      <c r="M6" s="15">
+        <v>928.12</v>
+      </c>
+      <c r="N6" s="19">
+        <v>0</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="19">
+        <v>112</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>803</v>
+      </c>
+      <c r="R6" s="7">
+        <v>267.67</v>
+      </c>
+      <c r="S6" s="7">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C7" s="8">
+        <v>680</v>
+      </c>
+      <c r="D7" s="32">
+        <v>44521</v>
+      </c>
+      <c r="E7" s="32">
+        <v>397.51</v>
+      </c>
+      <c r="F7" s="28">
+        <v>301</v>
+      </c>
+      <c r="G7" s="28">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="H7" s="28">
+        <v>82</v>
+      </c>
+      <c r="I7" s="9">
+        <v>6560</v>
+      </c>
+      <c r="J7" s="9">
+        <v>100.92</v>
+      </c>
+      <c r="K7" s="9">
+        <v>47</v>
+      </c>
+      <c r="L7" s="16">
+        <v>97721</v>
+      </c>
+      <c r="M7" s="16">
+        <v>872.51</v>
+      </c>
+      <c r="N7" s="20">
+        <v>0</v>
+      </c>
+      <c r="O7" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="20">
+        <v>112</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>2572</v>
+      </c>
+      <c r="R7" s="10">
+        <v>214.33</v>
+      </c>
+      <c r="S7" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C8" s="8">
+        <v>950</v>
+      </c>
+      <c r="D8" s="32">
+        <v>3253</v>
+      </c>
+      <c r="E8" s="32">
+        <v>29.04</v>
+      </c>
+      <c r="F8" s="28">
+        <v>210</v>
+      </c>
+      <c r="G8" s="28">
+        <v>2.04</v>
+      </c>
+      <c r="H8" s="28">
+        <v>9</v>
+      </c>
+      <c r="I8" s="9">
+        <v>1207</v>
+      </c>
+      <c r="J8" s="9">
+        <v>10.97</v>
+      </c>
+      <c r="K8" s="9">
+        <v>2</v>
+      </c>
+      <c r="L8" s="16">
+        <v>32443</v>
+      </c>
+      <c r="M8" s="16">
+        <v>289.67</v>
+      </c>
+      <c r="N8" s="20">
+        <v>263</v>
+      </c>
+      <c r="O8" s="20">
+        <v>20.23</v>
+      </c>
+      <c r="P8" s="20">
+        <v>99</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>9313</v>
+      </c>
+      <c r="R8" s="10">
+        <v>119.4</v>
+      </c>
+      <c r="S8" s="10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C9" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="32">
+        <v>1690</v>
+      </c>
+      <c r="E9" s="32">
+        <v>15.09</v>
+      </c>
+      <c r="F9" s="28">
+        <v>54</v>
+      </c>
+      <c r="G9" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="28">
+        <v>5</v>
+      </c>
+      <c r="I9" s="9">
+        <v>500</v>
+      </c>
+      <c r="J9" s="9">
+        <v>4.55</v>
+      </c>
+      <c r="K9" s="9">
+        <v>2</v>
+      </c>
+      <c r="L9" s="16">
+        <v>14606</v>
+      </c>
+      <c r="M9" s="16">
+        <v>130.41</v>
+      </c>
+      <c r="N9" s="20">
+        <v>591</v>
+      </c>
+      <c r="O9" s="20">
+        <v>13.13</v>
+      </c>
+      <c r="P9" s="20">
+        <v>67</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>7074</v>
+      </c>
+      <c r="R9" s="10">
+        <v>70.739999999999995</v>
+      </c>
+      <c r="S9" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C10" s="8">
+        <v>1200</v>
+      </c>
+      <c r="D10" s="32">
+        <v>25</v>
+      </c>
+      <c r="E10" s="32">
+        <v>0.22</v>
+      </c>
+      <c r="F10" s="28">
+        <v>25</v>
+      </c>
+      <c r="G10" s="28">
+        <v>0.22</v>
+      </c>
+      <c r="H10" s="28">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
+        <v>25</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0.22</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
+      <c r="L10" s="16">
+        <v>1233</v>
+      </c>
+      <c r="M10" s="16">
+        <v>11.01</v>
+      </c>
+      <c r="N10" s="20">
+        <v>59</v>
+      </c>
+      <c r="O10" s="20">
+        <v>0.54</v>
+      </c>
+      <c r="P10" s="20">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>332</v>
+      </c>
+      <c r="R10" s="10">
+        <v>2.99</v>
+      </c>
+      <c r="S10" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="11">
+        <v>1500</v>
+      </c>
+      <c r="D11" s="33">
+        <v>0</v>
+      </c>
+      <c r="E11" s="33">
+        <v>0</v>
+      </c>
+      <c r="F11" s="29">
+        <v>0</v>
+      </c>
+      <c r="G11" s="29">
+        <v>0</v>
+      </c>
+      <c r="H11" s="29">
+        <v>0</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0</v>
+      </c>
+      <c r="K11" s="12">
+        <v>0</v>
+      </c>
+      <c r="L11" s="17">
+        <v>657</v>
+      </c>
+      <c r="M11" s="17">
+        <v>5.87</v>
+      </c>
+      <c r="N11" s="21">
+        <v>1</v>
+      </c>
+      <c r="O11" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="P11" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>1</v>
+      </c>
+      <c r="R11" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="S11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C2:AF25"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -704,7 +2033,9 @@
       <c r="G4" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="35"/>
+      <c r="H4" s="35" t="s">
+        <v>14</v>
+      </c>
       <c r="I4" s="35"/>
       <c r="J4" s="35"/>
       <c r="K4" s="37"/>
@@ -716,7 +2047,9 @@
       <c r="O4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="23"/>
+      <c r="P4" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="Q4" s="23"/>
       <c r="R4" s="23"/>
       <c r="S4" s="25"/>
@@ -1840,6 +3173,9 @@
       <c r="S18" s="13">
         <v>0</v>
       </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="K25" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
